--- a/Huawei_Commissioning_App/Inputs/CAbinet_Sheet.xlsx
+++ b/Huawei_Commissioning_App/Inputs/CAbinet_Sheet.xlsx
@@ -1,31 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\VsCode_Workspaces\C#_Workspace\Huawei_Commissioning_App\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Documents\GitHub\C-sharp\Huawei_Commissioning_App\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628F427-465E-4586-AD64-C44573F76B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Family</t>
   </si>
@@ -39,24 +32,30 @@
     <t>Code_2</t>
   </si>
   <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>MA5600</t>
+  </si>
+  <si>
+    <t>11-1-70-80</t>
+  </si>
+  <si>
+    <t>11-1-70-82</t>
+  </si>
+  <si>
     <t>Families</t>
   </si>
   <si>
     <t>Nokia</t>
   </si>
   <si>
-    <t>Huawei</t>
+    <t>Types</t>
   </si>
   <si>
     <t>MA5818</t>
   </si>
   <si>
-    <t>Types</t>
-  </si>
-  <si>
-    <t>MA5600</t>
-  </si>
-  <si>
     <t>MSAN500</t>
   </si>
   <si>
@@ -70,25 +69,13 @@
   </si>
   <si>
     <t>MODEL_B</t>
-  </si>
-  <si>
-    <t>11-2-13-155</t>
-  </si>
-  <si>
-    <t>11-2-13-156</t>
-  </si>
-  <si>
-    <t>11-2-88-158</t>
-  </si>
-  <si>
-    <t>11-2-88-159</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +86,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="16"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,42 +106,18 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,20 +127,26 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,13 +161,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,89 +179,203 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -298,14 +384,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -314,10 +392,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -452,6 +530,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -478,24 +557,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -556,195 +636,186 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="18.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="18.33203" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.33203" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.33203" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.33203" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.441406" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.88672" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.33203" style="7" customWidth="1"/>
+    <col min="8" max="9" width="14" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.33203" style="7" customWidth="1"/>
+    <col min="11" max="11" width="18.55469" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.33203" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.55469" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="34.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" ht="32.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="18"/>
+      <c r="F3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+    </row>
+    <row r="4" ht="30.75" customHeight="1">
+      <c r="C4" s="22"/>
+      <c r="F4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="M4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
     </row>
-    <row r="3" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+    <row r="5" ht="29.25" customHeight="1">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
     </row>
-    <row r="4" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
+    <row r="6" ht="32.25" customHeight="1"/>
+    <row r="7" ht="33" customHeight="1">
+      <c r="J7" s="25"/>
     </row>
-    <row r="5" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
+    <row r="8" ht="30" customHeight="1">
+      <c r="I8" s="26"/>
     </row>
-    <row r="6" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J7" s="6"/>
+    <row r="9" ht="32.25" customHeight="1">
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="7"/>
+    <row r="10" ht="27" customHeight="1"/>
+    <row r="11" ht="28.5" customHeight="1"/>
+    <row r="12" ht="28.5" customHeight="1"/>
+    <row r="13" ht="30.75" customHeight="1"/>
+    <row r="14" ht="32.25" customHeight="1"/>
+    <row r="15" ht="25.5" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1"/>
+    <row r="17" ht="24.75" customHeight="1">
+      <c r="K17" s="27"/>
     </row>
-    <row r="9" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="11:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="11:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="21" customHeight="1"/>
+    <row r="19" ht="21.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup r:id="rId1" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Huawei_Commissioning_App/Inputs/CAbinet_Sheet.xlsx
+++ b/Huawei_Commissioning_App/Inputs/CAbinet_Sheet.xlsx
@@ -35,27 +35,39 @@
     <t>Huawei</t>
   </si>
   <si>
+    <t>MA5818</t>
+  </si>
+  <si>
+    <t>11-2-17-141</t>
+  </si>
+  <si>
+    <t>11-2-17-142</t>
+  </si>
+  <si>
+    <t>11-2-17-143</t>
+  </si>
+  <si>
+    <t>11-2-17-144</t>
+  </si>
+  <si>
+    <t>Families</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>11-2-17-145</t>
+  </si>
+  <si>
+    <t>11-2-17-146</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
     <t>MA5600</t>
   </si>
   <si>
-    <t>11-1-70-80</t>
-  </si>
-  <si>
-    <t>11-1-70-82</t>
-  </si>
-  <si>
-    <t>Families</t>
-  </si>
-  <si>
-    <t>Nokia</t>
-  </si>
-  <si>
-    <t>Types</t>
-  </si>
-  <si>
-    <t>MA5818</t>
-  </si>
-  <si>
     <t>MSAN500</t>
   </si>
   <si>
@@ -69,6 +81,48 @@
   </si>
   <si>
     <t>MODEL_B</t>
+  </si>
+  <si>
+    <t>11-2-17-147</t>
+  </si>
+  <si>
+    <t>11-2-17-148</t>
+  </si>
+  <si>
+    <t>11-2-17-149</t>
+  </si>
+  <si>
+    <t>11-2-17-150</t>
+  </si>
+  <si>
+    <t>11-2-17-151</t>
+  </si>
+  <si>
+    <t>11-2-17-152</t>
+  </si>
+  <si>
+    <t>11-2-17-159</t>
+  </si>
+  <si>
+    <t>11-2-17-160</t>
+  </si>
+  <si>
+    <t>11-2-17-167</t>
+  </si>
+  <si>
+    <t>11-2-17-168</t>
+  </si>
+  <si>
+    <t>11-1-05-145</t>
+  </si>
+  <si>
+    <t>11-1-05-146</t>
+  </si>
+  <si>
+    <t>11-1-05-149</t>
+  </si>
+  <si>
+    <t>11-1-05-150</t>
   </si>
 </sst>
 </file>
@@ -189,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -276,17 +330,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -295,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,9 +401,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -648,7 +688,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
@@ -687,7 +727,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" ht="34.5" customHeight="1">
+    <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -697,7 +737,9 @@
       <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -712,7 +754,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
     </row>
-    <row r="3" ht="32.25" customHeight="1">
+    <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -720,17 +762,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="18"/>
+        <v>8</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
@@ -744,31 +788,42 @@
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
     </row>
-    <row r="4" ht="30.75" customHeight="1">
-      <c r="C4" s="22"/>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
@@ -777,7 +832,19 @@
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" ht="29.25" customHeight="1">
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -792,29 +859,104 @@
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" ht="32.25" customHeight="1"/>
-    <row r="7" ht="33" customHeight="1">
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" ht="32.25" customHeight="1">
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" ht="27" customHeight="1"/>
-    <row r="11" ht="28.5" customHeight="1"/>
-    <row r="12" ht="28.5" customHeight="1"/>
-    <row r="13" ht="30.75" customHeight="1"/>
-    <row r="14" ht="32.25" customHeight="1"/>
-    <row r="15" ht="25.5" customHeight="1"/>
-    <row r="16" ht="24.75" customHeight="1"/>
-    <row r="17" ht="24.75" customHeight="1">
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" ht="21" customHeight="1"/>
-    <row r="19" ht="21.75" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1"/>
+    <row r="13" ht="15" customHeight="1"/>
+    <row r="14" ht="16.5" customHeight="1"/>
+    <row r="15" ht="15" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="15" customHeight="1">
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1"/>
   </sheetData>
   <pageSetup r:id="rId1" orientation="portrait"/>
 </worksheet>

--- a/Huawei_Commissioning_App/Inputs/CAbinet_Sheet.xlsx
+++ b/Huawei_Commissioning_App/Inputs/CAbinet_Sheet.xlsx
@@ -38,16 +38,16 @@
     <t>MA5818</t>
   </si>
   <si>
-    <t>11-2-17-141</t>
-  </si>
-  <si>
-    <t>11-2-17-142</t>
-  </si>
-  <si>
-    <t>11-2-17-143</t>
-  </si>
-  <si>
-    <t>11-2-17-144</t>
+    <t>11-2-17-153</t>
+  </si>
+  <si>
+    <t>11-2-17-154</t>
+  </si>
+  <si>
+    <t>11-2-17-155</t>
+  </si>
+  <si>
+    <t>11-2-17-156</t>
   </si>
   <si>
     <t>Families</t>
@@ -56,10 +56,10 @@
     <t>Nokia</t>
   </si>
   <si>
-    <t>11-2-17-145</t>
-  </si>
-  <si>
-    <t>11-2-17-146</t>
+    <t>11-2-17-157</t>
+  </si>
+  <si>
+    <t>11-2-17-158</t>
   </si>
   <si>
     <t>Types</t>
@@ -83,46 +83,22 @@
     <t>MODEL_B</t>
   </si>
   <si>
-    <t>11-2-17-147</t>
-  </si>
-  <si>
-    <t>11-2-17-148</t>
-  </si>
-  <si>
-    <t>11-2-17-149</t>
-  </si>
-  <si>
-    <t>11-2-17-150</t>
-  </si>
-  <si>
-    <t>11-2-17-151</t>
-  </si>
-  <si>
-    <t>11-2-17-152</t>
-  </si>
-  <si>
-    <t>11-2-17-159</t>
-  </si>
-  <si>
-    <t>11-2-17-160</t>
-  </si>
-  <si>
-    <t>11-2-17-167</t>
-  </si>
-  <si>
-    <t>11-2-17-168</t>
-  </si>
-  <si>
-    <t>11-1-05-145</t>
-  </si>
-  <si>
-    <t>11-1-05-146</t>
-  </si>
-  <si>
-    <t>11-1-05-149</t>
-  </si>
-  <si>
-    <t>11-1-05-150</t>
+    <t>11-2-17-161</t>
+  </si>
+  <si>
+    <t>11-2-17-162</t>
+  </si>
+  <si>
+    <t>11-2-17-163</t>
+  </si>
+  <si>
+    <t>11-2-17-164</t>
+  </si>
+  <si>
+    <t>11-2-17-165</t>
+  </si>
+  <si>
+    <t>11-2-17-166</t>
   </si>
 </sst>
 </file>
@@ -688,7 +664,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
@@ -889,64 +865,16 @@
       <c r="J7" s="24"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C8" s="17"/>
       <c r="I8" s="25"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C9" s="17"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    <row r="10" ht="18" customHeight="1"/>
+    <row r="11" ht="16.5" customHeight="1"/>
     <row r="12" ht="16.5" customHeight="1"/>
     <row r="13" ht="15" customHeight="1"/>
     <row r="14" ht="16.5" customHeight="1"/>

--- a/Huawei_Commissioning_App/Inputs/CAbinet_Sheet.xlsx
+++ b/Huawei_Commissioning_App/Inputs/CAbinet_Sheet.xlsx
@@ -38,16 +38,16 @@
     <t>MA5818</t>
   </si>
   <si>
-    <t>11-2-17-153</t>
-  </si>
-  <si>
-    <t>11-2-17-154</t>
-  </si>
-  <si>
-    <t>11-2-17-155</t>
-  </si>
-  <si>
-    <t>11-2-17-156</t>
+    <t>11-1-02-112</t>
+  </si>
+  <si>
+    <t>11-1-02-113</t>
+  </si>
+  <si>
+    <t>11-2-88-166</t>
+  </si>
+  <si>
+    <t>11-2-88-167</t>
   </si>
   <si>
     <t>Families</t>
@@ -56,12 +56,6 @@
     <t>Nokia</t>
   </si>
   <si>
-    <t>11-2-17-157</t>
-  </si>
-  <si>
-    <t>11-2-17-158</t>
-  </si>
-  <si>
     <t>Types</t>
   </si>
   <si>
@@ -81,24 +75,6 @@
   </si>
   <si>
     <t>MODEL_B</t>
-  </si>
-  <si>
-    <t>11-2-17-161</t>
-  </si>
-  <si>
-    <t>11-2-17-162</t>
-  </si>
-  <si>
-    <t>11-2-17-163</t>
-  </si>
-  <si>
-    <t>11-2-17-164</t>
-  </si>
-  <si>
-    <t>11-2-17-165</t>
-  </si>
-  <si>
-    <t>11-2-17-166</t>
   </si>
 </sst>
 </file>
@@ -314,16 +290,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,10 +317,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,13 +337,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,6 +354,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,7 +637,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
@@ -707,171 +680,130 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="F4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="K4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="M4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="16"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="C8" s="17"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="C9" s="17"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="C9" s="16"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" ht="18" customHeight="1"/>
     <row r="11" ht="16.5" customHeight="1"/>
@@ -881,7 +813,7 @@
     <row r="15" ht="15" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="15" customHeight="1">
-      <c r="K17" s="26"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="15" customHeight="1"/>
